--- a/template/xay.xlsx
+++ b/template/xay.xlsx
@@ -41,12 +41,12 @@
     <definedName name="BCTQ" hidden="1">{"'Sheet1'!$L$16"}</definedName>
     <definedName name="Binh" hidden="1">{"'Sheet1'!$L$16"}</definedName>
     <definedName name="btl" hidden="1">{"'Sheet1'!$L$16"}</definedName>
+    <definedName name="CTCT1" hidden="1">{"'Sheet1'!$L$16"}</definedName>
+    <definedName name="cuong" hidden="1">{"'Sheet1'!$L$16"}</definedName>
     <definedName name="chitietbgiang2" hidden="1">{"'Sheet1'!$L$16"}</definedName>
     <definedName name="chot3" hidden="1">{"'Sheet1'!$L$16"}</definedName>
     <definedName name="chottda" hidden="1">{"'Sheet1'!$L$16"}</definedName>
     <definedName name="chuyen" hidden="1">{"'Sheet1'!$L$16"}</definedName>
-    <definedName name="CTCT1" hidden="1">{"'Sheet1'!$L$16"}</definedName>
-    <definedName name="cuong" hidden="1">{"'Sheet1'!$L$16"}</definedName>
     <definedName name="ddång" hidden="1">{"'Sheet1'!$L$16"}</definedName>
     <definedName name="ga" hidden="1">{"'Sheet1'!$L$16"}</definedName>
     <definedName name="h" hidden="1">{"'Sheet1'!$L$16"}</definedName>
@@ -78,12 +78,12 @@
     <definedName name="oanh" hidden="1">{"'Sheet1'!$L$16"}</definedName>
     <definedName name="Phuong" hidden="1">{"'Sheet1'!$L$16"}</definedName>
     <definedName name="sa" hidden="1">{"'Sheet1'!$L$16"}</definedName>
-    <definedName name="tha" hidden="1">{"'Sheet1'!$L$16"}</definedName>
-    <definedName name="THC" hidden="1">{"'Sheet1'!$L$16"}</definedName>
     <definedName name="TU" hidden="1">{"'Sheet1'!$L$16"}</definedName>
     <definedName name="tuam" hidden="1">{"'Sheet1'!$L$16"}</definedName>
     <definedName name="tuan03" hidden="1">{"'Sheet1'!$L$16"}</definedName>
     <definedName name="tuyennhanh" hidden="1">{"'Sheet1'!$L$16"}</definedName>
+    <definedName name="tha" hidden="1">{"'Sheet1'!$L$16"}</definedName>
+    <definedName name="THC" hidden="1">{"'Sheet1'!$L$16"}</definedName>
     <definedName name="vcoto" hidden="1">{"'Sheet1'!$L$16"}</definedName>
     <definedName name="xlttbninh" hidden="1">{"'Sheet1'!$L$16"}</definedName>
   </definedNames>
@@ -97,7 +97,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="57">
   <si>
     <t>Ban QLXD</t>
   </si>
@@ -220,18 +220,9 @@
     <t>VỊ TRÍ, CĂN HỘ KIỂM TRA</t>
   </si>
   <si>
-    <t>Vị trí/Căn hộ:……………………….</t>
-  </si>
-  <si>
     <t>Địa điểm:</t>
   </si>
   <si>
-    <t>Hạng mục:……………………</t>
-  </si>
-  <si>
-    <t>Số: ………………………</t>
-  </si>
-  <si>
     <t>Công trình:</t>
   </si>
   <si>
@@ -244,28 +235,40 @@
     <t>sadasdasd</t>
   </si>
   <si>
-    <t>(vung1 text)</t>
-  </si>
-  <si>
-    <t>(vung2 text)</t>
-  </si>
-  <si>
-    <t>(vung3 number)</t>
-  </si>
-  <si>
-    <t>(vung4 text)</t>
-  </si>
-  <si>
-    <t>(vung5 text)</t>
-  </si>
-  <si>
-    <t>(vung6 text)</t>
-  </si>
-  <si>
-    <t>(vung7 number)</t>
-  </si>
-  <si>
-    <t>(vung8 number)</t>
+    <t>Số:</t>
+  </si>
+  <si>
+    <t>Hạng mục:</t>
+  </si>
+  <si>
+    <t>Vị trí/Căn hộ:</t>
+  </si>
+  <si>
+    <t>${Tên, vị trí cấu kiện kiểm tra;text}</t>
+  </si>
+  <si>
+    <t>${Số;number}</t>
+  </si>
+  <si>
+    <t>${Công trình;text}</t>
+  </si>
+  <si>
+    <t>${Địa điểm;text}</t>
+  </si>
+  <si>
+    <t>${Hạng mục;text}</t>
+  </si>
+  <si>
+    <t>${Vị trí/Căn hộ;text}</t>
+  </si>
+  <si>
+    <t>${Sơ đồ;file}</t>
+  </si>
+  <si>
+    <t>${Bản vẽ thiết kế số;number}</t>
+  </si>
+  <si>
+    <t>${Bản vẽ thi công số;number}</t>
   </si>
 </sst>
 </file>
@@ -280,7 +283,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -795,7 +798,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="126">
+  <cellXfs count="124">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
@@ -1009,6 +1012,81 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="32" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="31" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="16" xfId="1" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="17" xfId="1" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="29" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="30" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="28" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="33" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="34" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="35" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="3" xfId="1" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1018,9 +1096,6 @@
     <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1036,21 +1111,9 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="31" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="31" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1090,76 +1153,10 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="36" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="37" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="32" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="31" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="16" xfId="1" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="17" xfId="1" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="29" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="30" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="28" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="33" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="34" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="35" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
@@ -3493,55 +3490,55 @@
   </sheetPr>
   <dimension ref="A1:H49"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8:E20"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.09765625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.77734375" style="1" customWidth="1"/>
-    <col min="2" max="3" width="23.6640625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="20.88671875" style="1" customWidth="1"/>
-    <col min="5" max="6" width="11.44140625" style="1" customWidth="1"/>
-    <col min="7" max="8" width="15.6640625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.796875" style="1" customWidth="1"/>
+    <col min="2" max="3" width="23.69921875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="20.8984375" style="1" customWidth="1"/>
+    <col min="5" max="6" width="11.3984375" style="1" customWidth="1"/>
+    <col min="7" max="8" width="15.69921875" style="1" customWidth="1"/>
     <col min="9" max="9" width="9" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="16384" width="8.109375" style="1"/>
+    <col min="10" max="16384" width="8.09765625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="H1" s="66" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="2" spans="1:8" s="65" customFormat="1" ht="24.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="75" t="s">
-        <v>45</v>
-      </c>
-      <c r="B2" s="76"/>
-      <c r="C2" s="76"/>
-      <c r="D2" s="76"/>
-      <c r="E2" s="76"/>
-      <c r="F2" s="76"/>
-      <c r="G2" s="76"/>
-      <c r="H2" s="77"/>
+      <c r="A2" s="100" t="s">
+        <v>42</v>
+      </c>
+      <c r="B2" s="101"/>
+      <c r="C2" s="101"/>
+      <c r="D2" s="101"/>
+      <c r="E2" s="101"/>
+      <c r="F2" s="101"/>
+      <c r="G2" s="101"/>
+      <c r="H2" s="102"/>
     </row>
     <row r="3" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="64" t="s">
-        <v>44</v>
-      </c>
-      <c r="B3" s="89" t="s">
-        <v>48</v>
-      </c>
-      <c r="C3" s="90"/>
-      <c r="D3" s="90"/>
-      <c r="E3" s="91"/>
+        <v>41</v>
+      </c>
+      <c r="B3" s="109" t="s">
+        <v>50</v>
+      </c>
+      <c r="C3" s="110"/>
+      <c r="D3" s="110"/>
+      <c r="E3" s="111"/>
       <c r="F3" s="63" t="s">
-        <v>43</v>
-      </c>
-      <c r="G3" s="95" t="s">
-        <v>50</v>
-      </c>
-      <c r="H3" s="96"/>
+        <v>45</v>
+      </c>
+      <c r="G3" s="115" t="s">
+        <v>49</v>
+      </c>
+      <c r="H3" s="116"/>
     </row>
     <row r="4" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="62"/>
@@ -3550,188 +3547,190 @@
       <c r="D4" s="61"/>
       <c r="E4" s="61"/>
       <c r="F4" s="60" t="s">
-        <v>42</v>
-      </c>
-      <c r="G4" s="97" t="s">
-        <v>51</v>
-      </c>
-      <c r="H4" s="98"/>
+        <v>46</v>
+      </c>
+      <c r="G4" s="117" t="s">
+        <v>52</v>
+      </c>
+      <c r="H4" s="118"/>
     </row>
     <row r="5" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="59" t="s">
-        <v>41</v>
-      </c>
-      <c r="B5" s="92" t="s">
-        <v>49</v>
-      </c>
-      <c r="C5" s="93"/>
-      <c r="D5" s="93"/>
-      <c r="E5" s="94"/>
+        <v>40</v>
+      </c>
+      <c r="B5" s="112" t="s">
+        <v>51</v>
+      </c>
+      <c r="C5" s="113"/>
+      <c r="D5" s="113"/>
+      <c r="E5" s="114"/>
       <c r="F5" s="58" t="s">
-        <v>40</v>
-      </c>
-      <c r="G5" s="99" t="s">
-        <v>52</v>
-      </c>
-      <c r="H5" s="100"/>
+        <v>47</v>
+      </c>
+      <c r="G5" s="119" t="s">
+        <v>53</v>
+      </c>
+      <c r="H5" s="120"/>
     </row>
     <row r="6" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="78" t="s">
+      <c r="A6" s="93" t="s">
         <v>39</v>
       </c>
-      <c r="B6" s="79"/>
-      <c r="C6" s="79"/>
-      <c r="D6" s="79"/>
-      <c r="E6" s="79"/>
-      <c r="F6" s="79"/>
-      <c r="G6" s="79"/>
-      <c r="H6" s="80"/>
+      <c r="B6" s="103"/>
+      <c r="C6" s="103"/>
+      <c r="D6" s="103"/>
+      <c r="E6" s="103"/>
+      <c r="F6" s="103"/>
+      <c r="G6" s="103"/>
+      <c r="H6" s="104"/>
     </row>
     <row r="7" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="84" t="s">
+      <c r="A7" s="83" t="s">
         <v>38</v>
       </c>
-      <c r="B7" s="85"/>
-      <c r="C7" s="85"/>
-      <c r="D7" s="85"/>
+      <c r="B7" s="108"/>
+      <c r="C7" s="108"/>
+      <c r="D7" s="108"/>
       <c r="E7" s="57"/>
-      <c r="F7" s="110" t="s">
+      <c r="F7" s="78" t="s">
         <v>37</v>
       </c>
-      <c r="G7" s="111"/>
-      <c r="H7" s="112"/>
+      <c r="G7" s="79"/>
+      <c r="H7" s="80"/>
     </row>
     <row r="8" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="117"/>
-      <c r="B8" s="118"/>
-      <c r="C8" s="118"/>
-      <c r="D8" s="118"/>
-      <c r="E8" s="119"/>
-      <c r="F8" s="101" t="s">
-        <v>53</v>
-      </c>
-      <c r="G8" s="102"/>
-      <c r="H8" s="103"/>
+      <c r="A8" s="87" t="s">
+        <v>54</v>
+      </c>
+      <c r="B8" s="88"/>
+      <c r="C8" s="88"/>
+      <c r="D8" s="88"/>
+      <c r="E8" s="89"/>
+      <c r="F8" s="121" t="s">
+        <v>48</v>
+      </c>
+      <c r="G8" s="88"/>
+      <c r="H8" s="122"/>
     </row>
     <row r="9" spans="1:8" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="117"/>
-      <c r="B9" s="118"/>
-      <c r="C9" s="118"/>
-      <c r="D9" s="118"/>
-      <c r="E9" s="119"/>
-      <c r="F9" s="101"/>
-      <c r="G9" s="102"/>
-      <c r="H9" s="103"/>
+      <c r="A9" s="87"/>
+      <c r="B9" s="88"/>
+      <c r="C9" s="88"/>
+      <c r="D9" s="88"/>
+      <c r="E9" s="89"/>
+      <c r="F9" s="121"/>
+      <c r="G9" s="88"/>
+      <c r="H9" s="122"/>
     </row>
     <row r="10" spans="1:8" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="117"/>
-      <c r="B10" s="118"/>
-      <c r="C10" s="118"/>
-      <c r="D10" s="118"/>
-      <c r="E10" s="119"/>
-      <c r="F10" s="101"/>
-      <c r="G10" s="102"/>
-      <c r="H10" s="103"/>
+      <c r="A10" s="87"/>
+      <c r="B10" s="88"/>
+      <c r="C10" s="88"/>
+      <c r="D10" s="88"/>
+      <c r="E10" s="89"/>
+      <c r="F10" s="121"/>
+      <c r="G10" s="88"/>
+      <c r="H10" s="122"/>
     </row>
     <row r="11" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="117"/>
-      <c r="B11" s="118"/>
-      <c r="C11" s="118"/>
-      <c r="D11" s="118"/>
-      <c r="E11" s="119"/>
-      <c r="F11" s="101"/>
-      <c r="G11" s="102"/>
-      <c r="H11" s="103"/>
+      <c r="A11" s="87"/>
+      <c r="B11" s="88"/>
+      <c r="C11" s="88"/>
+      <c r="D11" s="88"/>
+      <c r="E11" s="89"/>
+      <c r="F11" s="121"/>
+      <c r="G11" s="88"/>
+      <c r="H11" s="122"/>
     </row>
     <row r="12" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="117"/>
-      <c r="B12" s="118"/>
-      <c r="C12" s="118"/>
-      <c r="D12" s="118"/>
-      <c r="E12" s="119"/>
-      <c r="F12" s="101"/>
-      <c r="G12" s="102"/>
-      <c r="H12" s="103"/>
+      <c r="A12" s="87"/>
+      <c r="B12" s="88"/>
+      <c r="C12" s="88"/>
+      <c r="D12" s="88"/>
+      <c r="E12" s="89"/>
+      <c r="F12" s="121"/>
+      <c r="G12" s="88"/>
+      <c r="H12" s="122"/>
     </row>
     <row r="13" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="117"/>
-      <c r="B13" s="118"/>
-      <c r="C13" s="118"/>
-      <c r="D13" s="118"/>
-      <c r="E13" s="119"/>
-      <c r="F13" s="101"/>
-      <c r="G13" s="102"/>
-      <c r="H13" s="103"/>
+      <c r="A13" s="87"/>
+      <c r="B13" s="88"/>
+      <c r="C13" s="88"/>
+      <c r="D13" s="88"/>
+      <c r="E13" s="89"/>
+      <c r="F13" s="121"/>
+      <c r="G13" s="88"/>
+      <c r="H13" s="122"/>
     </row>
     <row r="14" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="117"/>
-      <c r="B14" s="118"/>
-      <c r="C14" s="118"/>
-      <c r="D14" s="118"/>
-      <c r="E14" s="119"/>
-      <c r="F14" s="101"/>
-      <c r="G14" s="102"/>
-      <c r="H14" s="103"/>
+      <c r="A14" s="87"/>
+      <c r="B14" s="88"/>
+      <c r="C14" s="88"/>
+      <c r="D14" s="88"/>
+      <c r="E14" s="89"/>
+      <c r="F14" s="121"/>
+      <c r="G14" s="88"/>
+      <c r="H14" s="122"/>
     </row>
     <row r="15" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="117"/>
-      <c r="B15" s="118"/>
-      <c r="C15" s="118"/>
-      <c r="D15" s="118"/>
-      <c r="E15" s="119"/>
-      <c r="F15" s="101"/>
-      <c r="G15" s="102"/>
-      <c r="H15" s="103"/>
+      <c r="A15" s="87"/>
+      <c r="B15" s="88"/>
+      <c r="C15" s="88"/>
+      <c r="D15" s="88"/>
+      <c r="E15" s="89"/>
+      <c r="F15" s="121"/>
+      <c r="G15" s="88"/>
+      <c r="H15" s="122"/>
     </row>
     <row r="16" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="117"/>
-      <c r="B16" s="118"/>
-      <c r="C16" s="118"/>
-      <c r="D16" s="118"/>
-      <c r="E16" s="119"/>
-      <c r="F16" s="101"/>
-      <c r="G16" s="102"/>
-      <c r="H16" s="103"/>
+      <c r="A16" s="87"/>
+      <c r="B16" s="88"/>
+      <c r="C16" s="88"/>
+      <c r="D16" s="88"/>
+      <c r="E16" s="89"/>
+      <c r="F16" s="121"/>
+      <c r="G16" s="88"/>
+      <c r="H16" s="122"/>
     </row>
     <row r="17" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="117"/>
-      <c r="B17" s="118"/>
-      <c r="C17" s="118"/>
-      <c r="D17" s="118"/>
-      <c r="E17" s="119"/>
-      <c r="F17" s="101"/>
-      <c r="G17" s="102"/>
-      <c r="H17" s="103"/>
+      <c r="A17" s="87"/>
+      <c r="B17" s="88"/>
+      <c r="C17" s="88"/>
+      <c r="D17" s="88"/>
+      <c r="E17" s="89"/>
+      <c r="F17" s="121"/>
+      <c r="G17" s="88"/>
+      <c r="H17" s="122"/>
     </row>
     <row r="18" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="117"/>
-      <c r="B18" s="118"/>
-      <c r="C18" s="118"/>
-      <c r="D18" s="118"/>
-      <c r="E18" s="119"/>
-      <c r="F18" s="101"/>
-      <c r="G18" s="102"/>
-      <c r="H18" s="103"/>
+      <c r="A18" s="87"/>
+      <c r="B18" s="88"/>
+      <c r="C18" s="88"/>
+      <c r="D18" s="88"/>
+      <c r="E18" s="89"/>
+      <c r="F18" s="121"/>
+      <c r="G18" s="88"/>
+      <c r="H18" s="122"/>
     </row>
     <row r="19" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="117"/>
-      <c r="B19" s="118"/>
-      <c r="C19" s="118"/>
-      <c r="D19" s="118"/>
-      <c r="E19" s="119"/>
-      <c r="F19" s="101"/>
-      <c r="G19" s="102"/>
-      <c r="H19" s="103"/>
+      <c r="A19" s="87"/>
+      <c r="B19" s="88"/>
+      <c r="C19" s="88"/>
+      <c r="D19" s="88"/>
+      <c r="E19" s="89"/>
+      <c r="F19" s="121"/>
+      <c r="G19" s="88"/>
+      <c r="H19" s="122"/>
     </row>
     <row r="20" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="88"/>
-      <c r="B20" s="120"/>
-      <c r="C20" s="120"/>
-      <c r="D20" s="120"/>
-      <c r="E20" s="121"/>
-      <c r="F20" s="104"/>
-      <c r="G20" s="105"/>
-      <c r="H20" s="106"/>
+      <c r="A20" s="90"/>
+      <c r="B20" s="91"/>
+      <c r="C20" s="91"/>
+      <c r="D20" s="91"/>
+      <c r="E20" s="92"/>
+      <c r="F20" s="123"/>
+      <c r="G20" s="91"/>
+      <c r="H20" s="99"/>
     </row>
     <row r="21" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="56" t="s">
@@ -3742,7 +3741,7 @@
         <v>35</v>
       </c>
       <c r="D21" s="68" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E21" s="54"/>
       <c r="F21" s="54"/>
@@ -3756,7 +3755,7 @@
         <v>34</v>
       </c>
       <c r="D22" s="67" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E22" s="50"/>
       <c r="F22" s="50"/>
@@ -3764,41 +3763,41 @@
       <c r="H22" s="49"/>
     </row>
     <row r="23" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="78" t="s">
+      <c r="A23" s="93" t="s">
         <v>33</v>
       </c>
-      <c r="B23" s="86"/>
-      <c r="C23" s="86"/>
-      <c r="D23" s="86"/>
-      <c r="E23" s="86"/>
-      <c r="F23" s="86"/>
-      <c r="G23" s="86"/>
-      <c r="H23" s="87"/>
+      <c r="B23" s="94"/>
+      <c r="C23" s="94"/>
+      <c r="D23" s="94"/>
+      <c r="E23" s="94"/>
+      <c r="F23" s="94"/>
+      <c r="G23" s="94"/>
+      <c r="H23" s="95"/>
     </row>
     <row r="24" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="84" t="s">
+      <c r="A24" s="83" t="s">
         <v>32</v>
       </c>
-      <c r="B24" s="84" t="s">
+      <c r="B24" s="83" t="s">
         <v>31</v>
       </c>
-      <c r="C24" s="115"/>
+      <c r="C24" s="84"/>
       <c r="D24" s="48" t="s">
         <v>30</v>
       </c>
-      <c r="E24" s="81" t="s">
+      <c r="E24" s="105" t="s">
         <v>29</v>
       </c>
-      <c r="F24" s="82"/>
-      <c r="G24" s="81" t="s">
+      <c r="F24" s="106"/>
+      <c r="G24" s="105" t="s">
         <v>28</v>
       </c>
-      <c r="H24" s="83"/>
+      <c r="H24" s="107"/>
     </row>
     <row r="25" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="88"/>
-      <c r="B25" s="88"/>
-      <c r="C25" s="116"/>
+      <c r="A25" s="85"/>
+      <c r="B25" s="85"/>
+      <c r="C25" s="86"/>
       <c r="D25" s="45" t="s">
         <v>27</v>
       </c>
@@ -3823,12 +3822,11 @@
         <v>22</v>
       </c>
       <c r="C26" s="40"/>
-      <c r="D26" s="69"/>
       <c r="E26" s="39"/>
       <c r="F26" s="39"/>
       <c r="G26" s="38"/>
       <c r="H26" s="37" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -3849,10 +3847,10 @@
       <c r="A28" s="34">
         <v>3</v>
       </c>
-      <c r="B28" s="113" t="s">
+      <c r="B28" s="81" t="s">
         <v>20</v>
       </c>
-      <c r="C28" s="114"/>
+      <c r="C28" s="82"/>
       <c r="D28" s="31"/>
       <c r="E28" s="30"/>
       <c r="F28" s="30"/>
@@ -3881,7 +3879,7 @@
         <v>18</v>
       </c>
       <c r="C30" s="32"/>
-      <c r="D30" s="31"/>
+      <c r="D30" s="69"/>
       <c r="E30" s="30"/>
       <c r="F30" s="30"/>
       <c r="G30" s="29"/>
@@ -4026,38 +4024,38 @@
       <c r="H40" s="15"/>
     </row>
     <row r="41" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="122"/>
-      <c r="B41" s="123"/>
-      <c r="C41" s="123"/>
-      <c r="D41" s="123"/>
-      <c r="E41" s="123"/>
-      <c r="F41" s="123"/>
-      <c r="G41" s="123"/>
-      <c r="H41" s="124"/>
+      <c r="A41" s="96"/>
+      <c r="B41" s="97"/>
+      <c r="C41" s="97"/>
+      <c r="D41" s="97"/>
+      <c r="E41" s="97"/>
+      <c r="F41" s="97"/>
+      <c r="G41" s="97"/>
+      <c r="H41" s="98"/>
     </row>
     <row r="42" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="125"/>
-      <c r="B42" s="105"/>
-      <c r="C42" s="105"/>
-      <c r="D42" s="105"/>
-      <c r="E42" s="105"/>
-      <c r="F42" s="105"/>
-      <c r="G42" s="105"/>
-      <c r="H42" s="106"/>
+      <c r="A42" s="90"/>
+      <c r="B42" s="91"/>
+      <c r="C42" s="91"/>
+      <c r="D42" s="91"/>
+      <c r="E42" s="91"/>
+      <c r="F42" s="91"/>
+      <c r="G42" s="91"/>
+      <c r="H42" s="99"/>
     </row>
-    <row r="43" spans="1:8" s="11" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="78" t="s">
+    <row r="43" spans="1:8" s="11" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="93" t="s">
         <v>7</v>
       </c>
-      <c r="B43" s="86"/>
-      <c r="C43" s="86"/>
-      <c r="D43" s="86"/>
-      <c r="E43" s="86"/>
-      <c r="F43" s="86"/>
-      <c r="G43" s="86"/>
-      <c r="H43" s="87"/>
+      <c r="B43" s="94"/>
+      <c r="C43" s="94"/>
+      <c r="D43" s="94"/>
+      <c r="E43" s="94"/>
+      <c r="F43" s="94"/>
+      <c r="G43" s="94"/>
+      <c r="H43" s="95"/>
     </row>
-    <row r="44" spans="1:8" s="11" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:8" s="11" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="72"/>
       <c r="B44" s="73" t="s">
         <v>6</v>
@@ -4069,7 +4067,7 @@
       <c r="G44" s="74"/>
       <c r="H44" s="46"/>
     </row>
-    <row r="45" spans="1:8" s="11" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:8" s="11" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="71"/>
       <c r="B45" s="14" t="s">
         <v>5</v>
@@ -4084,15 +4082,15 @@
       <c r="A46" s="10"/>
       <c r="B46" s="9"/>
       <c r="C46" s="9"/>
-      <c r="D46" s="107" t="s">
+      <c r="D46" s="75" t="s">
         <v>4</v>
       </c>
-      <c r="E46" s="109"/>
-      <c r="F46" s="108"/>
-      <c r="G46" s="107" t="s">
+      <c r="E46" s="77"/>
+      <c r="F46" s="76"/>
+      <c r="G46" s="75" t="s">
         <v>3</v>
       </c>
-      <c r="H46" s="108"/>
+      <c r="H46" s="76"/>
     </row>
     <row r="47" spans="1:8" s="2" customFormat="1" ht="39.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="7" t="s">
@@ -4132,14 +4130,6 @@
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="G46:H46"/>
-    <mergeCell ref="D46:F46"/>
-    <mergeCell ref="F7:H7"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="B24:C25"/>
-    <mergeCell ref="A8:E20"/>
-    <mergeCell ref="A43:H43"/>
-    <mergeCell ref="A41:H42"/>
     <mergeCell ref="A2:H2"/>
     <mergeCell ref="A6:H6"/>
     <mergeCell ref="E24:F24"/>
@@ -4153,6 +4143,14 @@
     <mergeCell ref="G4:H4"/>
     <mergeCell ref="G5:H5"/>
     <mergeCell ref="F8:H20"/>
+    <mergeCell ref="G46:H46"/>
+    <mergeCell ref="D46:F46"/>
+    <mergeCell ref="F7:H7"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="B24:C25"/>
+    <mergeCell ref="A8:E20"/>
+    <mergeCell ref="A43:H43"/>
+    <mergeCell ref="A41:H42"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0" right="0" top="0.5" bottom="0" header="0.3" footer="0.3"/>
